--- a/out.xlsx
+++ b/out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="join" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -342,8 +343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,15 +369,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:E4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
